--- a/KylinGame/release/configfile/dataConfig/monster/monsterSheetData.xlsx
+++ b/KylinGame/release/configfile/dataConfig/monster/monsterSheetData.xlsx
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="214">
   <si>
     <t>maxAtk</t>
   </si>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>debutTollId</t>
-  </si>
-  <si>
-    <t>feature1</t>
   </si>
   <si>
     <t>*1</t>
@@ -1054,6 +1051,18 @@
   </si>
   <si>
     <t>moveSpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureLanIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33001,33033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33001,33006,33040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,10 +1599,10 @@
   <dimension ref="A1:AH141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1610,7 +1622,10 @@
     <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.875" customWidth="1"/>
-    <col min="26" max="28" width="14.75" customWidth="1"/>
+    <col min="26" max="27" width="14.75" customWidth="1"/>
+    <col min="28" max="28" width="20.25" customWidth="1"/>
+    <col min="29" max="29" width="12.375" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
     <col min="34" max="34" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1694,22 +1709,22 @@
         <v>102</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>105</v>
@@ -1738,7 +1753,7 @@
         <v>110</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
@@ -1750,19 +1765,19 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>2</v>
@@ -1795,25 +1810,25 @@
         <v>119</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>121</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1821,7 +1836,7 @@
         <v>141001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1885,19 +1900,19 @@
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="4">
-        <v>33001</v>
-      </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AB3" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>33033</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="4">
-        <v>33033</v>
-      </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="4"/>
       <c r="AG3" s="5"/>
       <c r="AH3">
         <f>(H3+I3)/2*J3</f>
@@ -1909,7 +1924,7 @@
         <v>141002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1976,16 +1991,16 @@
       <c r="AB4" s="4">
         <v>33002</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="4">
+        <v>33016</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="4">
-        <v>33016</v>
-      </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="4"/>
       <c r="AG4" s="5"/>
       <c r="AH4">
         <f t="shared" ref="AH4:AH65" si="1">(H4+I4)/2*J4</f>
@@ -1997,13 +2012,13 @@
         <v>141003</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2063,20 +2078,20 @@
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="4">
-        <v>33001</v>
-      </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AB5" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>33006</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>33040</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="4">
-        <v>33006</v>
-      </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>33040</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>9</v>
@@ -2091,7 +2106,7 @@
         <v>142004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -2158,16 +2173,16 @@
       <c r="AB6" s="4">
         <v>33001</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="4">
+        <v>33014</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="4">
-        <v>33014</v>
-      </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="4"/>
       <c r="AG6" s="5"/>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -2179,7 +2194,7 @@
         <v>141005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -2248,16 +2263,16 @@
       <c r="AB7" s="4">
         <v>33002</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="4">
+        <v>33034</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="4">
-        <v>33034</v>
-      </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="4"/>
       <c r="AG7" s="5"/>
       <c r="AH7">
         <f t="shared" si="1"/>
@@ -2269,7 +2284,7 @@
         <v>141006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -2340,16 +2355,16 @@
       <c r="AB8" s="4">
         <v>33004</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="4">
+        <v>33035</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="4">
-        <v>33035</v>
-      </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AF8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="4"/>
       <c r="AG8" s="5"/>
       <c r="AH8">
         <f t="shared" si="1"/>
@@ -2361,7 +2376,7 @@
         <v>141007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -2370,7 +2385,7 @@
         <v>151016</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2432,16 +2447,16 @@
       <c r="AB9" s="4">
         <v>33037</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="4">
+        <v>33036</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="4">
-        <v>33036</v>
-      </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AF9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="4"/>
       <c r="AG9" s="5"/>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -2453,7 +2468,7 @@
         <v>141008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -2520,16 +2535,16 @@
       <c r="AB10" s="4">
         <v>33006</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="4">
+        <v>33037</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="4">
-        <v>33037</v>
-      </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AF10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="4"/>
       <c r="AG10" s="5"/>
       <c r="AH10">
         <f t="shared" si="1"/>
@@ -2541,13 +2556,13 @@
         <v>141009</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2610,16 +2625,16 @@
       <c r="AB11" s="4">
         <v>33007</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" s="4">
+        <v>33038</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="4">
-        <v>33038</v>
-      </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AF11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AF11" s="4"/>
       <c r="AG11" s="5"/>
       <c r="AH11">
         <f t="shared" si="1"/>
@@ -2631,13 +2646,13 @@
         <v>141010</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -2704,17 +2719,17 @@
       <c r="AB12" s="4">
         <v>33008</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" s="4">
+        <v>33039</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>33056</v>
+      </c>
+      <c r="AE12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AD12" s="4">
-        <v>33039</v>
-      </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AF12" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>33056</v>
       </c>
       <c r="AG12" s="5" t="s">
         <v>21</v>
@@ -2729,7 +2744,7 @@
         <v>141011</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2796,16 +2811,16 @@
       <c r="AB13" s="4">
         <v>33001</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AC13" s="4">
+        <v>33033</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD13" s="4">
-        <v>33033</v>
-      </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AF13" s="4"/>
       <c r="AG13" s="5"/>
       <c r="AH13">
         <f t="shared" si="1"/>
@@ -2817,13 +2832,13 @@
         <v>141012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2886,17 +2901,17 @@
       <c r="AB14" s="4">
         <v>33009</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC14" s="4">
+        <v>33040</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>33058</v>
+      </c>
+      <c r="AE14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD14" s="4">
-        <v>33040</v>
-      </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AF14" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>33058</v>
       </c>
       <c r="AG14" t="s">
         <v>42</v>
@@ -2911,7 +2926,7 @@
         <v>141013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -2982,20 +2997,20 @@
       <c r="AB15" s="4">
         <v>33010</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AC15" s="4">
+        <v>33041</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>33062</v>
+      </c>
+      <c r="AE15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD15" s="4">
-        <v>33041</v>
-      </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AF15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF15" s="7">
-        <v>33062</v>
-      </c>
       <c r="AG15" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH15">
         <f>(H15+I15)/2*J15</f>
@@ -3007,13 +3022,13 @@
         <v>141014</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3076,16 +3091,16 @@
       <c r="AB16" s="4">
         <v>33011</v>
       </c>
-      <c r="AC16" s="5" t="s">
+      <c r="AC16" s="4">
+        <v>33034</v>
+      </c>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AD16" s="4">
-        <v>33034</v>
-      </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AF16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF16" s="4"/>
       <c r="AG16" s="5"/>
       <c r="AH16">
         <f t="shared" si="1"/>
@@ -3097,7 +3112,7 @@
         <v>141015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -3164,12 +3179,12 @@
       <c r="AB17" s="4">
         <v>33041</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="4"/>
+      <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17">
         <f t="shared" si="1"/>
@@ -3181,7 +3196,7 @@
         <v>141016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -3250,16 +3265,16 @@
       <c r="AB18" s="4">
         <v>33013</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="4">
+        <v>33021</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" s="4">
-        <v>33021</v>
-      </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AF18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF18" s="4"/>
       <c r="AG18" s="5"/>
       <c r="AH18">
         <f t="shared" si="1"/>
@@ -3271,7 +3286,7 @@
         <v>141017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -3342,16 +3357,16 @@
       <c r="AB19" s="4">
         <v>33004</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AC19" s="4">
+        <v>33042</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD19" s="4">
-        <v>33042</v>
-      </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AF19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="4"/>
       <c r="AG19" s="5"/>
       <c r="AH19">
         <f t="shared" si="1"/>
@@ -3363,13 +3378,13 @@
         <v>142018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3432,17 +3447,17 @@
       <c r="AB20" s="4">
         <v>33014</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AC20" s="4">
+        <v>33043</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>33001</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="4">
-        <v>33043</v>
-      </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AF20" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>33001</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>4</v>
@@ -3457,13 +3472,13 @@
         <v>141019</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3531,17 +3546,17 @@
       <c r="AB21" s="4">
         <v>33015</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="4">
+        <v>33044</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>33057</v>
+      </c>
+      <c r="AE21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD21" s="4">
-        <v>33044</v>
-      </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AF21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>33057</v>
       </c>
       <c r="AG21" s="5" t="s">
         <v>34</v>
@@ -3556,7 +3571,7 @@
         <v>141020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -3623,16 +3638,16 @@
       <c r="AB22" s="4">
         <v>33016</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="4">
+        <v>33006</v>
+      </c>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD22" s="4">
-        <v>33006</v>
-      </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AF22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF22" s="4"/>
       <c r="AG22" s="5"/>
       <c r="AH22">
         <f t="shared" si="1"/>
@@ -3644,7 +3659,7 @@
         <v>141021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -3711,16 +3726,16 @@
       <c r="AB23" s="7">
         <v>33001</v>
       </c>
-      <c r="AC23" s="8" t="s">
+      <c r="AC23" s="4">
+        <v>33006</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AD23" s="4">
-        <v>33006</v>
-      </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AF23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF23" s="4"/>
       <c r="AG23" s="5"/>
       <c r="AH23">
         <f t="shared" si="1"/>
@@ -3732,13 +3747,13 @@
         <v>141022</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3801,16 +3816,16 @@
       <c r="AB24" s="4">
         <v>33017</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD24" s="4">
+      <c r="AC24" s="4">
         <v>33006</v>
       </c>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF24" s="4"/>
       <c r="AG24" s="5"/>
       <c r="AH24">
         <f t="shared" si="1"/>
@@ -3822,7 +3837,7 @@
         <v>141023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -3893,16 +3908,16 @@
       <c r="AB25" s="4">
         <v>33004</v>
       </c>
-      <c r="AC25" s="5" t="s">
+      <c r="AC25" s="4">
+        <v>33010</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD25" s="4">
-        <v>33010</v>
-      </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AF25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AF25" s="4"/>
       <c r="AG25" s="5"/>
       <c r="AH25">
         <f t="shared" si="1"/>
@@ -3914,7 +3929,7 @@
         <v>141024</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -3983,16 +3998,16 @@
       <c r="AB26" s="4">
         <v>33018</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="4">
+        <v>33041</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AD26" s="4">
-        <v>33041</v>
-      </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AF26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF26" s="4"/>
       <c r="AG26" s="5"/>
       <c r="AH26">
         <f t="shared" si="1"/>
@@ -4004,7 +4019,7 @@
         <v>141025</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -4073,17 +4088,17 @@
       <c r="AB27" s="4">
         <v>33019</v>
       </c>
-      <c r="AC27" s="5" t="s">
+      <c r="AC27" s="4">
+        <v>33006</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>33003</v>
+      </c>
+      <c r="AE27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD27" s="4">
-        <v>33006</v>
-      </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AF27" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>33003</v>
       </c>
       <c r="AG27" s="5" t="s">
         <v>11</v>
@@ -4098,7 +4113,7 @@
         <v>141026</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -4169,17 +4184,17 @@
       <c r="AB28" s="4">
         <v>33007</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AC28" s="4">
+        <v>33045</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>33010</v>
+      </c>
+      <c r="AE28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD28" s="4">
-        <v>33045</v>
-      </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AF28" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>33010</v>
       </c>
       <c r="AG28" s="5" t="s">
         <v>23</v>
@@ -4194,7 +4209,7 @@
         <v>141027</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -4263,16 +4278,16 @@
       <c r="AB29" s="4">
         <v>33014</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AC29" s="4">
+        <v>33046</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AD29" s="4">
-        <v>33046</v>
-      </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AF29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF29" s="4"/>
       <c r="AG29" s="5"/>
       <c r="AH29">
         <f t="shared" si="1"/>
@@ -4284,13 +4299,13 @@
         <v>141028</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -4352,17 +4367,17 @@
       <c r="AB30" s="4">
         <v>33020</v>
       </c>
-      <c r="AC30" s="5" t="s">
+      <c r="AC30" s="4">
+        <v>33047</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>33058</v>
+      </c>
+      <c r="AE30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AD30" s="4">
-        <v>33047</v>
-      </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AF30" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>33058</v>
       </c>
       <c r="AG30" s="5" t="s">
         <v>42</v>
@@ -4377,7 +4392,7 @@
         <v>141029</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -4444,16 +4459,16 @@
       <c r="AB31" s="4">
         <v>33021</v>
       </c>
-      <c r="AC31" s="5" t="s">
+      <c r="AC31" s="4">
+        <v>33001</v>
+      </c>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="4">
-        <v>33001</v>
-      </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AF31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AF31" s="4"/>
       <c r="AG31" s="5"/>
       <c r="AH31">
         <f t="shared" si="1"/>
@@ -4465,7 +4480,7 @@
         <v>141030</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -4534,16 +4549,16 @@
       <c r="AB32" s="4">
         <v>33022</v>
       </c>
-      <c r="AC32" s="5" t="s">
+      <c r="AC32" s="4">
+        <v>33001</v>
+      </c>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD32" s="4">
-        <v>33001</v>
-      </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AF32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AF32" s="4"/>
       <c r="AG32" s="5"/>
       <c r="AH32">
         <f t="shared" si="1"/>
@@ -4555,13 +4570,13 @@
         <v>141031</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -4626,16 +4641,16 @@
       <c r="AB33" s="4">
         <v>33004</v>
       </c>
-      <c r="AC33" s="5" t="s">
+      <c r="AC33" s="4">
+        <v>33048</v>
+      </c>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD33" s="4">
-        <v>33048</v>
-      </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AF33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF33" s="4"/>
       <c r="AG33" s="5"/>
       <c r="AH33">
         <f t="shared" si="1"/>
@@ -4647,7 +4662,7 @@
         <v>142032</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -4714,16 +4729,16 @@
       <c r="AB34" s="4">
         <v>33014</v>
       </c>
-      <c r="AC34" s="5" t="s">
+      <c r="AC34" s="4">
+        <v>33021</v>
+      </c>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AD34" s="4">
-        <v>33021</v>
-      </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AF34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF34" s="4"/>
       <c r="AG34" s="5"/>
       <c r="AH34">
         <f t="shared" si="1"/>
@@ -4735,7 +4750,7 @@
         <v>141033</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -4804,16 +4819,16 @@
       <c r="AB35" s="4">
         <v>33023</v>
       </c>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="4">
+        <v>33049</v>
+      </c>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD35" s="4">
-        <v>33049</v>
-      </c>
-      <c r="AE35" s="5" t="s">
+      <c r="AF35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AF35" s="4"/>
       <c r="AG35" s="5"/>
       <c r="AH35">
         <f t="shared" si="1"/>
@@ -4825,7 +4840,7 @@
         <v>141034</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -4894,16 +4909,16 @@
       <c r="AB36" s="4">
         <v>33024</v>
       </c>
-      <c r="AC36" s="5" t="s">
+      <c r="AC36" s="4">
+        <v>33021</v>
+      </c>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AD36" s="4">
-        <v>33021</v>
-      </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AF36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF36" s="4"/>
       <c r="AG36" s="5"/>
       <c r="AH36">
         <f t="shared" si="1"/>
@@ -4915,7 +4930,7 @@
         <v>141035</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -4984,16 +4999,16 @@
       <c r="AB37" s="4">
         <v>33025</v>
       </c>
-      <c r="AC37" s="5" t="s">
+      <c r="AC37" s="4">
+        <v>33007</v>
+      </c>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD37" s="4">
-        <v>33007</v>
-      </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AF37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AF37" s="4"/>
       <c r="AG37" s="5"/>
       <c r="AH37">
         <f t="shared" si="1"/>
@@ -5005,13 +5020,13 @@
         <v>141036</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -5074,17 +5089,17 @@
       <c r="AB38" s="4">
         <v>33026</v>
       </c>
-      <c r="AC38" s="5" t="s">
+      <c r="AC38" s="4">
+        <v>33050</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>33012</v>
+      </c>
+      <c r="AE38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD38" s="4">
-        <v>33050</v>
-      </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AF38" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>33012</v>
       </c>
       <c r="AG38" s="5" t="s">
         <v>26</v>
@@ -5099,13 +5114,13 @@
         <v>142037</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5169,17 +5184,17 @@
       <c r="AB39" s="4">
         <v>33027</v>
       </c>
-      <c r="AC39" s="5" t="s">
+      <c r="AC39" s="4">
+        <v>33051</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>33059</v>
+      </c>
+      <c r="AE39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AD39" s="4">
-        <v>33051</v>
-      </c>
-      <c r="AE39" s="5" t="s">
+      <c r="AF39" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="AF39" s="4">
-        <v>33059</v>
       </c>
       <c r="AG39" s="5" t="s">
         <v>52</v>
@@ -5194,7 +5209,7 @@
         <v>141038</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -5261,16 +5276,16 @@
       <c r="AB40" s="4">
         <v>33007</v>
       </c>
-      <c r="AC40" s="5" t="s">
+      <c r="AC40" s="4">
+        <v>33002</v>
+      </c>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD40" s="4">
-        <v>33002</v>
-      </c>
-      <c r="AE40" s="5" t="s">
+      <c r="AF40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AF40" s="4"/>
       <c r="AG40" s="5"/>
       <c r="AH40">
         <f t="shared" si="1"/>
@@ -5282,7 +5297,7 @@
         <v>141039</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5351,16 +5366,16 @@
       <c r="AB41" s="4">
         <v>33028</v>
       </c>
-      <c r="AC41" s="5" t="s">
+      <c r="AC41" s="7">
+        <v>33001</v>
+      </c>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AD41" s="7">
-        <v>33001</v>
-      </c>
-      <c r="AE41" s="8" t="s">
+      <c r="AF41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AF41" s="4"/>
       <c r="AG41" s="5"/>
       <c r="AH41">
         <f t="shared" si="1"/>
@@ -5372,7 +5387,7 @@
         <v>141040</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -5441,16 +5456,16 @@
       <c r="AB42" s="4">
         <v>33007</v>
       </c>
-      <c r="AC42" s="5" t="s">
+      <c r="AC42" s="4">
+        <v>33002</v>
+      </c>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD42" s="4">
-        <v>33002</v>
-      </c>
-      <c r="AE42" s="5" t="s">
+      <c r="AF42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AF42" s="4"/>
       <c r="AG42" s="5"/>
       <c r="AH42">
         <f t="shared" si="1"/>
@@ -5462,7 +5477,7 @@
         <v>141041</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -5531,16 +5546,16 @@
       <c r="AB43" s="4">
         <v>33029</v>
       </c>
-      <c r="AC43" s="5" t="s">
+      <c r="AC43" s="4">
+        <v>33041</v>
+      </c>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD43" s="4">
-        <v>33041</v>
-      </c>
-      <c r="AE43" s="5" t="s">
+      <c r="AF43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF43" s="4"/>
       <c r="AG43" s="5"/>
       <c r="AH43">
         <f t="shared" si="1"/>
@@ -5552,7 +5567,7 @@
         <v>141042</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -5621,16 +5636,16 @@
       <c r="AB44" s="4">
         <v>33030</v>
       </c>
-      <c r="AC44" s="5" t="s">
+      <c r="AC44" s="4">
+        <v>33053</v>
+      </c>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AD44" s="4">
-        <v>33053</v>
-      </c>
-      <c r="AE44" s="5" t="s">
+      <c r="AF44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF44" s="4"/>
       <c r="AG44" s="5"/>
       <c r="AH44">
         <f t="shared" si="1"/>
@@ -5648,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -5711,17 +5726,17 @@
       <c r="AB45" s="4">
         <v>33031</v>
       </c>
-      <c r="AC45" s="5" t="s">
+      <c r="AC45" s="4">
+        <v>33006</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>33012</v>
+      </c>
+      <c r="AE45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="4">
-        <v>33006</v>
-      </c>
-      <c r="AE45" s="5" t="s">
+      <c r="AF45" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="AF45" s="4">
-        <v>33012</v>
       </c>
       <c r="AG45" s="5" t="s">
         <v>26</v>
@@ -5736,13 +5751,13 @@
         <v>141044</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -5807,17 +5822,17 @@
       <c r="AB46" s="4">
         <v>33004</v>
       </c>
-      <c r="AC46" s="5" t="s">
+      <c r="AC46" s="4">
+        <v>33012</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>33060</v>
+      </c>
+      <c r="AE46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD46" s="4">
-        <v>33012</v>
-      </c>
-      <c r="AE46" s="5" t="s">
+      <c r="AF46" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>33060</v>
       </c>
       <c r="AG46" s="5" t="s">
         <v>58</v>
@@ -5832,7 +5847,7 @@
         <v>142045</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -5901,16 +5916,16 @@
       <c r="AB47" s="4">
         <v>33014</v>
       </c>
-      <c r="AC47" s="5" t="s">
+      <c r="AC47" s="4">
+        <v>33054</v>
+      </c>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AD47" s="4">
-        <v>33054</v>
-      </c>
-      <c r="AE47" s="5" t="s">
+      <c r="AF47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AF47" s="4"/>
       <c r="AG47" s="5"/>
       <c r="AH47">
         <f t="shared" si="1"/>
@@ -5922,13 +5937,13 @@
         <v>142046</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -5992,17 +6007,17 @@
       <c r="AB48" s="4">
         <v>33032</v>
       </c>
-      <c r="AC48" s="5" t="s">
+      <c r="AC48" s="4">
+        <v>33055</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>33061</v>
+      </c>
+      <c r="AE48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD48" s="4">
-        <v>33055</v>
-      </c>
-      <c r="AE48" s="5" t="s">
+      <c r="AF48" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="AF48" s="4">
-        <v>33061</v>
       </c>
       <c r="AG48" s="5" t="s">
         <v>62</v>
@@ -6017,14 +6032,14 @@
         <v>142047</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4">
@@ -6168,16 +6183,16 @@
       <c r="AB50" s="7">
         <v>33002</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AC50" s="7">
+        <v>33016</v>
+      </c>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AD50" s="7">
-        <v>33016</v>
-      </c>
-      <c r="AE50" s="7" t="s">
+      <c r="AF50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50">
         <f t="shared" si="1"/>
@@ -6258,16 +6273,16 @@
       <c r="AB51" s="7">
         <v>33002</v>
       </c>
-      <c r="AC51" s="8" t="s">
+      <c r="AC51" s="7">
+        <v>33034</v>
+      </c>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AD51" s="7">
-        <v>33034</v>
-      </c>
-      <c r="AE51" s="7" t="s">
+      <c r="AF51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51">
         <f t="shared" si="1"/>
@@ -6285,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -6349,16 +6364,16 @@
       <c r="AB52" s="7">
         <v>33007</v>
       </c>
-      <c r="AC52" s="8" t="s">
+      <c r="AC52" s="7">
+        <v>33038</v>
+      </c>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AD52" s="7">
-        <v>33038</v>
-      </c>
-      <c r="AE52" s="7" t="s">
+      <c r="AF52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52">
         <f t="shared" si="1"/>
@@ -6437,16 +6452,16 @@
       <c r="AB53" s="7">
         <v>33002</v>
       </c>
-      <c r="AC53" s="15" t="s">
+      <c r="AC53" s="7">
+        <v>33023</v>
+      </c>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AD53" s="7">
-        <v>33023</v>
-      </c>
-      <c r="AE53" s="7" t="s">
+      <c r="AF53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53">
         <f t="shared" si="1"/>
@@ -6464,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -6527,20 +6542,20 @@
       <c r="AB54" s="7">
         <v>33009</v>
       </c>
-      <c r="AC54" s="8" t="s">
+      <c r="AC54" s="7">
+        <v>33040</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>33063</v>
+      </c>
+      <c r="AE54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AD54" s="7">
-        <v>33040</v>
-      </c>
-      <c r="AE54" s="7" t="s">
+      <c r="AF54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AF54" s="7">
-        <v>33063</v>
-      </c>
       <c r="AG54" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH54">
         <f t="shared" si="1"/>
@@ -6552,7 +6567,7 @@
         <v>141053</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -6621,17 +6636,17 @@
       <c r="AB55" s="7">
         <v>33012</v>
       </c>
-      <c r="AC55" s="8" t="s">
+      <c r="AC55" s="7">
+        <v>33041</v>
+      </c>
+      <c r="AD55" s="7">
+        <v>33023</v>
+      </c>
+      <c r="AE55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD55" s="7">
-        <v>33041</v>
-      </c>
-      <c r="AE55" s="7" t="s">
+      <c r="AF55" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="AF55" s="7">
-        <v>33023</v>
       </c>
       <c r="AG55" s="7" t="s">
         <v>7</v>
@@ -6713,16 +6728,16 @@
       <c r="AB56" s="7">
         <v>33001</v>
       </c>
-      <c r="AC56" s="8" t="s">
+      <c r="AC56" s="7">
+        <v>33062</v>
+      </c>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AD56" s="7">
-        <v>33062</v>
-      </c>
-      <c r="AE56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF56" s="7"/>
+      <c r="AF56" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="AG56" s="7"/>
       <c r="AH56">
         <f t="shared" si="1"/>
@@ -6801,16 +6816,16 @@
       <c r="AB57" s="7">
         <v>33001</v>
       </c>
-      <c r="AC57" s="8" t="s">
+      <c r="AC57" s="7">
+        <v>33023</v>
+      </c>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AD57" s="7">
-        <v>33023</v>
-      </c>
-      <c r="AE57" s="7" t="s">
+      <c r="AF57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57">
         <f t="shared" si="1"/>
@@ -6891,17 +6906,17 @@
       <c r="AB58" s="7">
         <v>33018</v>
       </c>
-      <c r="AC58" s="8" t="s">
+      <c r="AC58" s="7">
+        <v>33041</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>33016</v>
+      </c>
+      <c r="AE58" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD58" s="7">
-        <v>33041</v>
-      </c>
-      <c r="AE58" s="7" t="s">
+      <c r="AF58" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="AF58" s="4">
-        <v>33016</v>
       </c>
       <c r="AG58" s="5" t="s">
         <v>35</v>
@@ -6916,7 +6931,7 @@
         <v>141057</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -6983,17 +6998,17 @@
       <c r="AB59" s="7">
         <v>33021</v>
       </c>
-      <c r="AC59" s="8" t="s">
+      <c r="AC59" s="7">
+        <v>33001</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>33016</v>
+      </c>
+      <c r="AE59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD59" s="7">
-        <v>33001</v>
-      </c>
-      <c r="AE59" s="8" t="s">
+      <c r="AF59" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="AF59" s="4">
-        <v>33016</v>
       </c>
       <c r="AG59" s="5" t="s">
         <v>35</v>
@@ -7014,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -7079,20 +7094,20 @@
       <c r="AB60" s="7">
         <v>33004</v>
       </c>
-      <c r="AC60" s="8" t="s">
+      <c r="AC60" s="7">
+        <v>33064</v>
+      </c>
+      <c r="AD60" s="7">
+        <v>33063</v>
+      </c>
+      <c r="AE60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AD60" s="7">
-        <v>33064</v>
-      </c>
-      <c r="AE60" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF60" s="7">
-        <v>33063</v>
+      <c r="AF60" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="AG60" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH60">
         <f t="shared" si="1"/>
@@ -7173,16 +7188,16 @@
       <c r="AB61" s="7">
         <v>33062</v>
       </c>
-      <c r="AC61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD61" s="7">
+      <c r="AC61" s="7">
         <v>33049</v>
       </c>
-      <c r="AE61" s="8" t="s">
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AF61" s="7"/>
       <c r="AG61" s="8"/>
       <c r="AH61">
         <f t="shared" si="1"/>
@@ -7263,20 +7278,20 @@
       <c r="AB62" s="7">
         <v>33028</v>
       </c>
-      <c r="AC62" s="8" t="s">
+      <c r="AC62" s="7">
+        <v>33001</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>33063</v>
+      </c>
+      <c r="AE62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AD62" s="7">
-        <v>33001</v>
-      </c>
-      <c r="AE62" s="8" t="s">
+      <c r="AF62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AF62" s="7">
-        <v>33063</v>
-      </c>
       <c r="AG62" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH62">
         <f t="shared" si="1"/>
@@ -7357,20 +7372,20 @@
       <c r="AB63" s="7">
         <v>33014</v>
       </c>
-      <c r="AC63" s="8" t="s">
+      <c r="AC63" s="7">
+        <v>33054</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>33062</v>
+      </c>
+      <c r="AE63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD63" s="7">
-        <v>33054</v>
-      </c>
-      <c r="AE63" s="8" t="s">
+      <c r="AF63" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AF63" s="7">
-        <v>33062</v>
-      </c>
       <c r="AG63" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH63">
         <f t="shared" si="1"/>
@@ -7382,7 +7397,7 @@
         <v>141062</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
@@ -7451,16 +7466,16 @@
       <c r="AB64" s="7">
         <v>33007</v>
       </c>
-      <c r="AC64" s="8" t="s">
+      <c r="AC64" s="7">
+        <v>33023</v>
+      </c>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AD64" s="7">
-        <v>33023</v>
-      </c>
-      <c r="AE64" s="7" t="s">
+      <c r="AF64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF64" s="7"/>
       <c r="AG64" s="8"/>
       <c r="AH64">
         <f t="shared" si="1"/>
@@ -7472,7 +7487,7 @@
         <v>141063</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -7532,13 +7547,13 @@
       <c r="AB65" s="7">
         <v>33003</v>
       </c>
-      <c r="AC65" s="8" t="s">
+      <c r="AC65" s="7">
+        <v>33034</v>
+      </c>
+      <c r="AE65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AD65" s="7">
-        <v>33034</v>
-      </c>
-      <c r="AE65" s="7" t="s">
+      <c r="AF65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AH65">
@@ -7551,7 +7566,7 @@
         <v>141064</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -7620,16 +7635,16 @@
       <c r="AB66" s="4">
         <v>33001</v>
       </c>
-      <c r="AC66" s="5" t="s">
+      <c r="AC66" s="4">
+        <v>33033</v>
+      </c>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD66" s="4">
-        <v>33033</v>
-      </c>
-      <c r="AE66" s="5" t="s">
+      <c r="AF66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AF66" s="4"/>
       <c r="AG66" s="5"/>
     </row>
     <row r="67" spans="1:34">
@@ -7637,7 +7652,7 @@
         <v>141065</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -7706,16 +7721,16 @@
       <c r="AB67" s="4">
         <v>33002</v>
       </c>
-      <c r="AC67" s="5" t="s">
+      <c r="AC67" s="4">
+        <v>33016</v>
+      </c>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD67" s="4">
-        <v>33016</v>
-      </c>
-      <c r="AE67" s="5" t="s">
+      <c r="AF67" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AF67" s="4"/>
       <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="1:34">
@@ -7723,7 +7738,7 @@
         <v>141066</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -7792,16 +7807,16 @@
       <c r="AB68" s="4">
         <v>33003</v>
       </c>
-      <c r="AC68" s="5" t="s">
+      <c r="AC68" s="4">
+        <v>33033</v>
+      </c>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD68" s="4">
-        <v>33033</v>
-      </c>
-      <c r="AE68" s="5" t="s">
+      <c r="AF68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AF68" s="4"/>
       <c r="AG68" s="5"/>
       <c r="AH68">
         <f t="shared" ref="AH68:AH70" si="3">(H68+I68)/2*J68</f>
@@ -7813,7 +7828,7 @@
         <v>141067</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -7886,16 +7901,16 @@
       <c r="AB69" s="4">
         <v>33004</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AC69" s="4">
+        <v>33042</v>
+      </c>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD69" s="4">
-        <v>33042</v>
-      </c>
-      <c r="AE69" s="5" t="s">
+      <c r="AF69" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF69" s="4"/>
       <c r="AG69" s="5"/>
       <c r="AH69">
         <f t="shared" si="3"/>
@@ -7907,7 +7922,7 @@
         <v>141068</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -7975,16 +7990,16 @@
       <c r="AB70" s="4">
         <v>33033</v>
       </c>
-      <c r="AC70" s="5" t="s">
+      <c r="AC70" s="4">
+        <v>33001</v>
+      </c>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AD70" s="4">
-        <v>33001</v>
-      </c>
-      <c r="AE70" s="5" t="s">
+      <c r="AF70" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AF70" s="4"/>
       <c r="AG70" s="5"/>
       <c r="AH70">
         <f t="shared" si="3"/>
